--- a/Config/Datas/StartServer/StartProcess.xlsx
+++ b/Config/Datas/StartServer/StartProcess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -72,13 +72,7 @@
     <t>Login</t>
   </si>
   <si>
-    <t>GameServer/bin/Debug/net6.1/GameServer.dll</t>
-  </si>
-  <si>
     <t>World</t>
-  </si>
-  <si>
-    <t>GameServer/bin/Debug/net6.2/GameServer.dll</t>
   </si>
 </sst>
 </file>
@@ -1078,7 +1072,7 @@
   <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
@@ -1189,7 +1183,7 @@
         <v>20002</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="2:6">
@@ -1197,7 +1191,7 @@
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D6" s="1" t="s">
         <v>15</v>
@@ -1206,7 +1200,7 @@
         <v>20003</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/StartServer/StartProcess.xlsx
+++ b/Config/Datas/StartServer/StartProcess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
   <si>
     <t>##</t>
   </si>
@@ -60,16 +60,13 @@
     <t>进程路径</t>
   </si>
   <si>
-    <t>Main</t>
+    <t>Login</t>
   </si>
   <si>
     <t>127.0.0.1</t>
   </si>
   <si>
     <t>GameServer/bin/Debug/net6.0/GameServer.dll</t>
-  </si>
-  <si>
-    <t>Login</t>
   </si>
   <si>
     <t>World</t>
@@ -1069,13 +1066,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
@@ -1163,13 +1160,16 @@
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>20001</v>
+        <v>20002</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="2:6">
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>0</v>
+      </c>
       <c r="B5" s="1">
         <v>2</v>
       </c>
@@ -1180,26 +1180,9 @@
         <v>15</v>
       </c>
       <c r="E5" s="1">
-        <v>20002</v>
+        <v>20003</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6">
-      <c r="B6" s="1">
-        <v>3</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E6" s="1">
-        <v>20003</v>
-      </c>
-      <c r="F6" s="1" t="s">
         <v>16</v>
       </c>
     </row>

--- a/Config/Datas/StartServer/StartProcess.xlsx
+++ b/Config/Datas/StartServer/StartProcess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>##</t>
   </si>
@@ -33,7 +33,7 @@
     <t>port</t>
   </si>
   <si>
-    <t>process_path</t>
+    <t>database_name</t>
   </si>
   <si>
     <t>##type</t>
@@ -57,7 +57,7 @@
     <t>监听端口</t>
   </si>
   <si>
-    <t>进程路径</t>
+    <t>数据库名</t>
   </si>
   <si>
     <t>Login</t>
@@ -66,7 +66,10 @@
     <t>127.0.0.1</t>
   </si>
   <si>
-    <t>GameServer/bin/Debug/net6.0/GameServer.dll</t>
+    <t>Realm</t>
+  </si>
+  <si>
+    <t>Gate</t>
   </si>
   <si>
     <t>World</t>
@@ -1066,24 +1069,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H5"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
     <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="59.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="19.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="36.25" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1103,9 +1105,8 @@
         <v>5</v>
       </c>
       <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1119,15 +1120,14 @@
         <v>8</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>8</v>
       </c>
       <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,7 +1147,6 @@
         <v>13</v>
       </c>
       <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="1">
@@ -1160,30 +1159,55 @@
         <v>15</v>
       </c>
       <c r="E4" s="1">
-        <v>20002</v>
+        <v>20001</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
+    <row r="5" spans="2:5">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>15</v>
       </c>
       <c r="E5" s="1">
+        <v>20002</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="1">
+        <v>3</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="1">
         <v>20003</v>
       </c>
-      <c r="F5" s="1" t="s">
-        <v>16</v>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="1">
+        <v>4</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="1">
+        <v>20004</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Datas/StartServer/StartProcess.xlsx
+++ b/Config/Datas/StartServer/StartProcess.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="22">
   <si>
     <t>##</t>
   </si>
@@ -33,6 +33,9 @@
     <t>port</t>
   </si>
   <si>
+    <t>is_game_server</t>
+  </si>
+  <si>
     <t>database_name</t>
   </si>
   <si>
@@ -45,6 +48,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>Id</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
   </si>
   <si>
     <t>监听端口</t>
+  </si>
+  <si>
+    <t>是否是业务服务器</t>
   </si>
   <si>
     <t>数据库名</t>
@@ -1069,23 +1078,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="F4" sqref="F4:F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
     <col min="3" max="3" width="19.125" style="1" customWidth="1"/>
     <col min="4" max="4" width="16.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="36.25" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
+    <col min="5" max="6" width="19.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="36.25" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1104,110 +1113,131 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2"/>
     </row>
-    <row r="2" spans="1:7">
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>10</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="2"/>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="2"/>
+        <v>15</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="2:6">
+    <row r="4" spans="2:7">
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E4" s="1">
         <v>20001</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>14</v>
+      <c r="F4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
       </c>
     </row>
-    <row r="5" spans="2:5">
+    <row r="5" spans="2:6">
       <c r="B5" s="1">
         <v>2</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E5" s="1">
         <v>20002</v>
       </c>
+      <c r="F5" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="6" spans="2:5">
+    <row r="6" spans="2:6">
       <c r="B6" s="1">
         <v>3</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E6" s="1">
         <v>20003</v>
       </c>
+      <c r="F6" s="1" t="b">
+        <v>1</v>
+      </c>
     </row>
-    <row r="7" spans="2:6">
+    <row r="7" spans="2:7">
       <c r="B7" s="1">
         <v>4</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E7" s="1">
         <v>20004</v>
       </c>
-      <c r="F7" s="1" t="s">
-        <v>18</v>
+      <c r="F7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
